--- a/GG_Cars.xlsx
+++ b/GG_Cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>model</t>
   </si>
@@ -52,28 +52,26 @@
   </si>
   <si>
     <t>end date</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>zz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,8 +97,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,69 +398,72 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
+      <c r="G2" s="1">
+        <v>2010</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2015</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
